--- a/Results.xlsx
+++ b/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>№</t>
   </si>
@@ -23,6 +23,9 @@
     <t>Количество баллов</t>
   </si>
   <si>
+    <t>я</t>
+  </si>
+  <si>
     <t>)</t>
   </si>
   <si>
@@ -30,6 +33,9 @@
   </si>
   <si>
     <t>примите лабу :(</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -99,7 +105,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>137.0</v>
+        <v>235.0</v>
       </c>
     </row>
     <row r="3">
@@ -110,7 +116,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>117.0</v>
+        <v>137.0</v>
       </c>
     </row>
     <row r="4">
@@ -121,7 +127,40 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
+        <v>117.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
         <v>46.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
